--- a/appendix/mean_4ds_precision_macro_rest.xlsx
+++ b/appendix/mean_4ds_precision_macro_rest.xlsx
@@ -525,7 +525,7 @@
         <v>0.431</v>
       </c>
       <c r="G3" t="n">
-        <v>0.452</v>
+        <v>0.446</v>
       </c>
       <c r="H3" t="n">
         <v>0.501</v>

--- a/appendix/mean_4ds_precision_macro_rest.xlsx
+++ b/appendix/mean_4ds_precision_macro_rest.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.221</v>
+        <v>0.252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.374</v>
+        <v>0.392</v>
       </c>
       <c r="E5" t="n">
-        <v>0.426</v>
+        <v>0.443</v>
       </c>
       <c r="F5" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="G5" t="n">
-        <v>0.528</v>
+        <v>0.551</v>
       </c>
       <c r="H5" t="n">
-        <v>0.576</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="6">
@@ -618,29 +618,29 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248</v>
+        <v>0.252</v>
       </c>
       <c r="D7" t="n">
         <v>0.4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.432</v>
+        <v>0.443</v>
       </c>
       <c r="F7" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="G7" t="n">
         <v>0.553</v>
       </c>
       <c r="H7" t="n">
-        <v>0.576</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197</v>
+        <v>0.217</v>
       </c>
       <c r="D8" t="n">
-        <v>0.448</v>
+        <v>0.465</v>
       </c>
       <c r="E8" t="n">
-        <v>0.512</v>
+        <v>0.519</v>
       </c>
       <c r="F8" t="n">
-        <v>0.579</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.607</v>
+        <v>0.606</v>
       </c>
       <c r="H8" t="n">
-        <v>0.62</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.368</v>
+        <v>0.341</v>
       </c>
       <c r="C9" t="n">
-        <v>0.364</v>
+        <v>0.388</v>
       </c>
       <c r="D9" t="n">
-        <v>0.44</v>
+        <v>0.477</v>
       </c>
       <c r="E9" t="n">
-        <v>0.473</v>
+        <v>0.493</v>
       </c>
       <c r="F9" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="G9" t="n">
-        <v>0.526</v>
+        <v>0.521</v>
       </c>
       <c r="H9" t="n">
-        <v>0.542</v>
+        <v>0.539</v>
       </c>
     </row>
   </sheetData>
